--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>1000.0</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
-          <t>2001.0</t>
+          <t>1000.0</t>
         </is>
       </c>
     </row>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,18 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,75 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10050</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,18 +447,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10050</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="n">
-        <v>9950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>2000</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7">
@@ -490,31 +490,15 @@
         <v>2000</v>
       </c>
       <c r="B7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="B2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +463,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="B4" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5">
@@ -495,10 +495,58 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1400</v>
+        <v>6000</v>
       </c>
       <c r="B8" t="n">
-        <v>1400</v>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,55 +450,55 @@
         <v>4000</v>
       </c>
       <c r="B2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="B4" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1000</v>
+        <v>7777</v>
       </c>
       <c r="B5" t="n">
-        <v>1000</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="B6" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="B7" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6000</v>
+        <v>4575</v>
       </c>
       <c r="B8" t="n">
-        <v>6000</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4000</v>
+        <v>1780</v>
       </c>
       <c r="B12" t="n">
-        <v>4000</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +546,175 @@
         <v>4000</v>
       </c>
       <c r="B14" t="n">
-        <v>4000</v>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8040</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,26 +463,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1000</v>
+        <v>6664</v>
       </c>
       <c r="B4" t="n">
-        <v>1000</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7777</v>
+        <v>8000</v>
       </c>
       <c r="B5" t="n">
-        <v>7777</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4000</v>
+        <v>5800.9</v>
       </c>
       <c r="B6" t="n">
-        <v>4000</v>
+        <v>6890.71</v>
       </c>
     </row>
     <row r="7">
@@ -715,6 +715,18 @@
       </c>
       <c r="B35" t="n">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>9000.0</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9000.0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,285 +447,93 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4000</v>
+        <v>5525.5</v>
       </c>
       <c r="B2" t="n">
-        <v>8000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2000</v>
+        <v>5525.5</v>
       </c>
       <c r="B3" t="n">
-        <v>6000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6664</v>
+        <v>5525.5</v>
       </c>
       <c r="B4" t="n">
-        <v>4446</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8000</v>
+        <v>5525.5</v>
       </c>
       <c r="B5" t="n">
-        <v>6000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5800.9</v>
+        <v>5525.5</v>
       </c>
       <c r="B6" t="n">
-        <v>6890.71</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4000</v>
+        <v>5525.5</v>
       </c>
       <c r="B7" t="n">
-        <v>4000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4575</v>
+        <v>5525.5</v>
       </c>
       <c r="B8" t="n">
-        <v>9985</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6000</v>
+        <v>5525.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4000</v>
+        <v>5525.5</v>
       </c>
       <c r="B10" t="n">
-        <v>4000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4000</v>
+        <v>5525.5</v>
       </c>
       <c r="B11" t="n">
-        <v>4000</v>
+        <v>6605.7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1780</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>8040</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B35" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
-          <t>9000.0</t>
+          <t>5525.5</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
-          <t>9000.0</t>
+          <t>6605.7</t>
         </is>
       </c>
     </row>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,98 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6605.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5525.5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6605.7</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9800</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6700</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,14 +494,182 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>5000.0</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5000.0</t>
         </is>
       </c>
     </row>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,10 +535,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5000</v>
+        <v>6800</v>
       </c>
       <c r="B13" t="n">
-        <v>5000</v>
+        <v>9804.879999999999</v>
       </c>
     </row>
     <row r="14">
@@ -662,15 +662,27 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5000.0</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5000.0</t>
-        </is>
+      <c r="A29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8000.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3000.86</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6580.6</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,18 @@
         <v>6580.6</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>35600.0</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>64641.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -471,10 +471,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="B5" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6">
@@ -686,15 +686,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>35600.0</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>64641.0</t>
-        </is>
+      <c r="A32" t="n">
+        <v>35600</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64641</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,6 +693,66 @@
         <v>64641</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>400</v>
+      </c>
+      <c r="B33" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>500</v>
+      </c>
+      <c r="B34" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,314 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3000.6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9800</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6800</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6700</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>6800</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9804.879999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B28" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8000.8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3000.86</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6580.6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>35600</v>
-      </c>
-      <c r="B32" t="n">
-        <v>64641</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>400</v>
-      </c>
-      <c r="B33" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>500</v>
-      </c>
-      <c r="B34" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B35" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>8000</v>
-      </c>
-      <c r="B36" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B37" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B38" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>5000.0</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>5000.0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_RDMarcas.xlsx
+++ b/storage/lista_calc_RDMarcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
